--- a/Projects/CCNAYARMX/National/Data/CCNayarTemplate_Nationalv0.1.xlsx
+++ b/Projects/CCNAYARMX/National/Data/CCNayarTemplate_Nationalv0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -55,6 +55,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$74</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$74</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$74</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$74</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="324">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1339,10 +1340,7 @@
     <t xml:space="preserve">Enfriador-Nacional,Portafolio y Precios-Nacional,Plataformas-Nacional,Comunicacion-Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-25</t>
+    <t xml:space="preserve">75-100</t>
   </si>
   <si>
     <t xml:space="preserve">KPI Description</t>
@@ -2146,12 +2144,12 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.2753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.9514170040486"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="121.473684210526"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="122.542510121458"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -4041,18 +4039,18 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7125506072875"/>
@@ -4227,17 +4225,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="59" width="57.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="61.7004048582996"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="88.4817813765182"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="59" width="61.7004048582996"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="91.9068825910931"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="59" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="62.2348178137652"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="89.2307692307692"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="59" width="62.2348178137652"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="92.6558704453441"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="67.8056680161943"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="59" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="59" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="59" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="59" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="59" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="59" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="59" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="59" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="59" width="11.6761133603239"/>
@@ -4564,14 +4562,14 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.9919028340081"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="71.9838056680162"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="90.7287449392713"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="72.6275303643725"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4981,8 +4979,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5041,7 +5039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="96.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="n">
         <v>31</v>
       </c>
@@ -5061,10 +5059,10 @@
         <v>114</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>310</v>
+        <v>191</v>
       </c>
       <c r="I2" s="83"/>
       <c r="J2" s="84"/>
@@ -5075,7 +5073,7 @@
         <v>193</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O2" s="82" t="s">
         <v>44</v>
@@ -5109,13 +5107,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.3481781376518"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="53.1295546558704"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="53.5587044534413"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -5130,7 +5128,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>6</v>
@@ -5139,25 +5137,25 @@
         <v>195</v>
       </c>
       <c r="G1" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>318</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>319</v>
       </c>
       <c r="N1" s="34" t="s">
         <v>8</v>
@@ -5186,19 +5184,19 @@
         <v>206</v>
       </c>
       <c r="G2" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="91" t="s">
         <v>320</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="I2" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="J2" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>323</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>324</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>192</v>
@@ -5238,12 +5236,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="63.9514170040486"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1023" min="16" style="0" width="9.10526315789474"/>
@@ -5416,21 +5414,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="79.6963562753036"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.7004048582996"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.2024291497976"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.2348178137652"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="44.5627530364373"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -5915,14 +5913,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -6052,11 +6050,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.6963562753036"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.4858299595142"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="165.392712550607"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="166.890688259109"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -6317,14 +6315,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="58.4858299595142"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="72.0890688259109"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="72.7327935222672"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="77.0202429149798"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="59" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="97.587044534413"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="59" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="98.4412955465587"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="59" width="13.3886639676113"/>
@@ -6830,20 +6828,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="57.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="61.7004048582996"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="88.4817813765182"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="62.2348178137652"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="89.2307692307692"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -7057,19 +7055,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7044534412955"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="64.5910931174089"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -7266,10 +7264,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
